--- a/Template_VendeBem_Exercicio_Aula_02_Estrutura_Dados2.xlsx
+++ b/Template_VendeBem_Exercicio_Aula_02_Estrutura_Dados2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Desktop\BUILDING RELATIONAL DATA BASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AA646-143F-4B28-8EDB-98B933D6E459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626468C-4037-456E-BB27-408056E7C2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A119B2C4-549D-42F4-96FE-1FF968E52769}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>PRODUTO</t>
   </si>
   <si>
-    <t>COMANDA</t>
-  </si>
-  <si>
     <t>ESTABELECIMENTO</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
